--- a/individual_results/harvard/535.xlsx
+++ b/individual_results/harvard/535.xlsx
@@ -519,7 +519,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>1.428571428571429</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1.630929753571458</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
